--- a/Output_testing/R1_201907/Country/HKD/MN/UNITED KINGDOM_201907_HKD_MN.xlsx
+++ b/Output_testing/R1_201907/Country/HKD/MN/UNITED KINGDOM_201907_HKD_MN.xlsx
@@ -810,136 +810,433 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="11" t="n"/>
-      <c r="C18" s="12" t="n"/>
-      <c r="D18" s="13" t="n"/>
-      <c r="E18" s="12" t="n"/>
-      <c r="F18" s="13" t="n"/>
-      <c r="G18" s="12" t="n"/>
-      <c r="H18" s="13" t="n"/>
-      <c r="I18" s="12" t="n"/>
-      <c r="J18" s="13" t="n"/>
-      <c r="K18" s="13" t="n"/>
+      <c r="A18" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B18" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C18" s="8" t="n">
+        <v>6499.780383</v>
+      </c>
+      <c r="D18" s="9" t="n">
+        <v>12.97522231834937</v>
+      </c>
+      <c r="E18" s="8" t="n">
+        <v>6900.278035</v>
+      </c>
+      <c r="F18" s="9" t="n">
+        <v>14.17122047517941</v>
+      </c>
+      <c r="G18" s="8" t="n">
+        <v>10324.182677</v>
+      </c>
+      <c r="H18" s="9" t="n">
+        <v>20.79514249885418</v>
+      </c>
+      <c r="I18" s="8" t="n">
+        <v>5976.19308</v>
+      </c>
+      <c r="J18" s="9" t="n">
+        <v>19.35580257067301</v>
+      </c>
+      <c r="K18" s="9" t="n">
+        <v>18.27559073760883</v>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" s="11" t="n"/>
-      <c r="C19" s="12" t="n"/>
-      <c r="D19" s="13" t="n"/>
-      <c r="E19" s="12" t="n"/>
-      <c r="F19" s="13" t="n"/>
-      <c r="G19" s="12" t="n"/>
-      <c r="H19" s="13" t="n"/>
-      <c r="I19" s="12" t="n"/>
-      <c r="J19" s="13" t="n"/>
-      <c r="K19" s="13" t="n"/>
+      <c r="A19" s="11" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="B19" s="1" t="inlineStr">
+        <is>
+          <t>WORKS OF ART, COLLECTORS' PIECES AND ANTIQUES</t>
+        </is>
+      </c>
+      <c r="C19" s="8" t="n">
+        <v>1120.135562</v>
+      </c>
+      <c r="D19" s="9" t="n">
+        <v>2.236076772940285</v>
+      </c>
+      <c r="E19" s="8" t="n">
+        <v>875.939284</v>
+      </c>
+      <c r="F19" s="9" t="n">
+        <v>1.798931673980698</v>
+      </c>
+      <c r="G19" s="8" t="n">
+        <v>1263.380779</v>
+      </c>
+      <c r="H19" s="9" t="n">
+        <v>2.544722827129649</v>
+      </c>
+      <c r="I19" s="8" t="n">
+        <v>3752.43191</v>
+      </c>
+      <c r="J19" s="9" t="n">
+        <v>12.15344454865796</v>
+      </c>
+      <c r="K19" s="9" t="n">
+        <v>516.10055901111</v>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" s="11" t="n"/>
-      <c r="C20" s="12" t="n"/>
-      <c r="D20" s="13" t="n"/>
-      <c r="E20" s="12" t="n"/>
-      <c r="F20" s="13" t="n"/>
-      <c r="G20" s="12" t="n"/>
-      <c r="H20" s="13" t="n"/>
-      <c r="I20" s="12" t="n"/>
-      <c r="J20" s="13" t="n"/>
-      <c r="K20" s="13" t="n"/>
+      <c r="A20" s="11" t="inlineStr">
+        <is>
+          <t>897</t>
+        </is>
+      </c>
+      <c r="B20" s="1" t="inlineStr">
+        <is>
+          <t>JEWELLERY, GOLDSMITHS' AND SILVERSMITHS' WARES, AND OTHER ARTICLES OF PRECIOUS OR SEMI-PRECIOUS MATERIALS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C20" s="8" t="n">
+        <v>4564.9978</v>
+      </c>
+      <c r="D20" s="9" t="n">
+        <v>9.112901951686721</v>
+      </c>
+      <c r="E20" s="8" t="n">
+        <v>4784.495597</v>
+      </c>
+      <c r="F20" s="9" t="n">
+        <v>9.826001448594109</v>
+      </c>
+      <c r="G20" s="8" t="n">
+        <v>3584.565812</v>
+      </c>
+      <c r="H20" s="9" t="n">
+        <v>7.220092784983653</v>
+      </c>
+      <c r="I20" s="8" t="n">
+        <v>2437.121292</v>
+      </c>
+      <c r="J20" s="9" t="n">
+        <v>7.893392656037733</v>
+      </c>
+      <c r="K20" s="9" t="n">
+        <v>29.70417540240064</v>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" s="11" t="n"/>
-      <c r="C21" s="12" t="n"/>
-      <c r="D21" s="13" t="n"/>
-      <c r="E21" s="12" t="n"/>
-      <c r="F21" s="13" t="n"/>
-      <c r="G21" s="12" t="n"/>
-      <c r="H21" s="13" t="n"/>
-      <c r="I21" s="12" t="n"/>
-      <c r="J21" s="13" t="n"/>
-      <c r="K21" s="13" t="n"/>
+      <c r="A21" s="11" t="inlineStr">
+        <is>
+          <t>752</t>
+        </is>
+      </c>
+      <c r="B21" s="1" t="inlineStr">
+        <is>
+          <t>AUTOMATIC DATA PROCESSING MACHINES &amp; UNITS THEREOF; MAGNETIC OR OPTICAL READERS, MACHINES FOR TRANSCRIBING DATA ONTO DATA MEDIA IN CODED FORM AND FOR PROCESSING SUCH DATA, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C21" s="8" t="n">
+        <v>3559.67928</v>
+      </c>
+      <c r="D21" s="9" t="n">
+        <v>7.106029329979258</v>
+      </c>
+      <c r="E21" s="8" t="n">
+        <v>3258.358835</v>
+      </c>
+      <c r="F21" s="9" t="n">
+        <v>6.691747956216044</v>
+      </c>
+      <c r="G21" s="8" t="n">
+        <v>3055.424235</v>
+      </c>
+      <c r="H21" s="9" t="n">
+        <v>6.154286915401652</v>
+      </c>
+      <c r="I21" s="8" t="n">
+        <v>1723.98542</v>
+      </c>
+      <c r="J21" s="9" t="n">
+        <v>5.583675255726306</v>
+      </c>
+      <c r="K21" s="9" t="n">
+        <v>14.52183529210118</v>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" s="11" t="n"/>
-      <c r="C22" s="12" t="n"/>
-      <c r="D22" s="13" t="n"/>
-      <c r="E22" s="12" t="n"/>
-      <c r="F22" s="13" t="n"/>
-      <c r="G22" s="12" t="n"/>
-      <c r="H22" s="13" t="n"/>
-      <c r="I22" s="12" t="n"/>
-      <c r="J22" s="13" t="n"/>
-      <c r="K22" s="13" t="n"/>
+      <c r="A22" s="11" t="inlineStr">
+        <is>
+          <t>667</t>
+        </is>
+      </c>
+      <c r="B22" s="1" t="inlineStr">
+        <is>
+          <t>PEARLS, PRECIOUS AND SEMI-PRECIOUS STONES, UNWORKED OR WORKED</t>
+        </is>
+      </c>
+      <c r="C22" s="8" t="n">
+        <v>1071.656581</v>
+      </c>
+      <c r="D22" s="9" t="n">
+        <v>2.139300340633859</v>
+      </c>
+      <c r="E22" s="8" t="n">
+        <v>914.0161900000001</v>
+      </c>
+      <c r="F22" s="9" t="n">
+        <v>1.877130875114581</v>
+      </c>
+      <c r="G22" s="8" t="n">
+        <v>1265.453904</v>
+      </c>
+      <c r="H22" s="9" t="n">
+        <v>2.548898550394308</v>
+      </c>
+      <c r="I22" s="8" t="n">
+        <v>1529.967231</v>
+      </c>
+      <c r="J22" s="9" t="n">
+        <v>4.955285625215319</v>
+      </c>
+      <c r="K22" s="9" t="n">
+        <v>136.1406491361797</v>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" s="11" t="n"/>
-      <c r="C23" s="12" t="n"/>
-      <c r="D23" s="13" t="n"/>
-      <c r="E23" s="12" t="n"/>
-      <c r="F23" s="13" t="n"/>
-      <c r="G23" s="12" t="n"/>
-      <c r="H23" s="13" t="n"/>
-      <c r="I23" s="12" t="n"/>
-      <c r="J23" s="13" t="n"/>
-      <c r="K23" s="13" t="n"/>
+      <c r="A23" s="11" t="inlineStr">
+        <is>
+          <t>714</t>
+        </is>
+      </c>
+      <c r="B23" s="1" t="inlineStr">
+        <is>
+          <t>ENGINES AND MOTORS, NON-ELECTRIC (OTHER THAN THOSE OF GROUPS 712, 713 AND 718); PARTS, N.E.S. OF THESE ENGINES AND MOTORS</t>
+        </is>
+      </c>
+      <c r="C23" s="8" t="n">
+        <v>2539.690161</v>
+      </c>
+      <c r="D23" s="9" t="n">
+        <v>5.069870444374905</v>
+      </c>
+      <c r="E23" s="8" t="n">
+        <v>2960.03884</v>
+      </c>
+      <c r="F23" s="9" t="n">
+        <v>6.079083017230086</v>
+      </c>
+      <c r="G23" s="8" t="n">
+        <v>3145.476433</v>
+      </c>
+      <c r="H23" s="9" t="n">
+        <v>6.335671568146791</v>
+      </c>
+      <c r="I23" s="8" t="n">
+        <v>1351.498204</v>
+      </c>
+      <c r="J23" s="9" t="n">
+        <v>4.377256902690826</v>
+      </c>
+      <c r="K23" s="9" t="n">
+        <v>-29.43686405483119</v>
+      </c>
     </row>
     <row r="24">
-      <c r="A24" s="11" t="n"/>
-      <c r="C24" s="12" t="n"/>
-      <c r="D24" s="13" t="n"/>
-      <c r="E24" s="12" t="n"/>
-      <c r="F24" s="13" t="n"/>
-      <c r="G24" s="12" t="n"/>
-      <c r="H24" s="13" t="n"/>
-      <c r="I24" s="12" t="n"/>
-      <c r="J24" s="13" t="n"/>
-      <c r="K24" s="13" t="n"/>
+      <c r="A24" s="11" t="inlineStr">
+        <is>
+          <t>845</t>
+        </is>
+      </c>
+      <c r="B24" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES OF APPAREL, OF TEXTILE FABRICS, WHETHER OR NOT KNITTED OR CROCHETED, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C24" s="8" t="n">
+        <v>4033.999533</v>
+      </c>
+      <c r="D24" s="9" t="n">
+        <v>8.052893742331928</v>
+      </c>
+      <c r="E24" s="8" t="n">
+        <v>3337.755026</v>
+      </c>
+      <c r="F24" s="9" t="n">
+        <v>6.854805288376205</v>
+      </c>
+      <c r="G24" s="8" t="n">
+        <v>2832.040978</v>
+      </c>
+      <c r="H24" s="9" t="n">
+        <v>5.704344599723546</v>
+      </c>
+      <c r="I24" s="8" t="n">
+        <v>1328.052254</v>
+      </c>
+      <c r="J24" s="9" t="n">
+        <v>4.301319734462342</v>
+      </c>
+      <c r="K24" s="9" t="n">
+        <v>-10.76951946892097</v>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" s="11" t="n"/>
-      <c r="C25" s="12" t="n"/>
-      <c r="D25" s="13" t="n"/>
-      <c r="E25" s="12" t="n"/>
-      <c r="F25" s="13" t="n"/>
-      <c r="G25" s="12" t="n"/>
-      <c r="H25" s="13" t="n"/>
-      <c r="I25" s="12" t="n"/>
-      <c r="J25" s="13" t="n"/>
-      <c r="K25" s="13" t="n"/>
+      <c r="A25" s="11" t="inlineStr">
+        <is>
+          <t>772</t>
+        </is>
+      </c>
+      <c r="B25" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL APPARATUS FOR SWITCHING ELECTRICAL CIRCUITS; ELECTRICAL RESISTORS; PRINTED CIRCUITS; BOARDS, CABINETS AND OTHER BASES ETC, FOR ELECTRIC CONTROL OF ELECTRICITY</t>
+        </is>
+      </c>
+      <c r="C25" s="8" t="n">
+        <v>1584.895757</v>
+      </c>
+      <c r="D25" s="9" t="n">
+        <v>3.163856866959564</v>
+      </c>
+      <c r="E25" s="8" t="n">
+        <v>1578.898804</v>
+      </c>
+      <c r="F25" s="9" t="n">
+        <v>3.242611811580586</v>
+      </c>
+      <c r="G25" s="8" t="n">
+        <v>1686.653888</v>
+      </c>
+      <c r="H25" s="9" t="n">
+        <v>3.397286646752582</v>
+      </c>
+      <c r="I25" s="8" t="n">
+        <v>1065.871257</v>
+      </c>
+      <c r="J25" s="9" t="n">
+        <v>3.452163164756228</v>
+      </c>
+      <c r="K25" s="9" t="n">
+        <v>16.00263829697814</v>
+      </c>
     </row>
     <row r="26">
-      <c r="A26" s="11" t="n"/>
-      <c r="C26" s="12" t="n"/>
-      <c r="D26" s="13" t="n"/>
-      <c r="E26" s="12" t="n"/>
-      <c r="F26" s="13" t="n"/>
-      <c r="G26" s="12" t="n"/>
-      <c r="H26" s="13" t="n"/>
-      <c r="I26" s="12" t="n"/>
-      <c r="J26" s="13" t="n"/>
-      <c r="K26" s="13" t="n"/>
+      <c r="A26" s="11" t="inlineStr">
+        <is>
+          <t>778</t>
+        </is>
+      </c>
+      <c r="B26" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL MACHINERY AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C26" s="8" t="n">
+        <v>1609.027746</v>
+      </c>
+      <c r="D26" s="9" t="n">
+        <v>3.212030482652475</v>
+      </c>
+      <c r="E26" s="8" t="n">
+        <v>1702.850711</v>
+      </c>
+      <c r="F26" s="9" t="n">
+        <v>3.497173989148831</v>
+      </c>
+      <c r="G26" s="8" t="n">
+        <v>1558.822484</v>
+      </c>
+      <c r="H26" s="9" t="n">
+        <v>3.139806481477065</v>
+      </c>
+      <c r="I26" s="8" t="n">
+        <v>927.868326</v>
+      </c>
+      <c r="J26" s="9" t="n">
+        <v>3.005196768113265</v>
+      </c>
+      <c r="K26" s="9" t="n">
+        <v>9.598305780793371</v>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" s="11" t="n"/>
-      <c r="C27" s="12" t="n"/>
-      <c r="D27" s="13" t="n"/>
-      <c r="E27" s="12" t="n"/>
-      <c r="F27" s="13" t="n"/>
-      <c r="G27" s="12" t="n"/>
-      <c r="H27" s="13" t="n"/>
-      <c r="I27" s="12" t="n"/>
-      <c r="J27" s="13" t="n"/>
-      <c r="K27" s="13" t="n"/>
+      <c r="A27" s="11" t="inlineStr">
+        <is>
+          <t>894</t>
+        </is>
+      </c>
+      <c r="B27" s="1" t="inlineStr">
+        <is>
+          <t>BABY CARRIAGES, TOYS, GAMES AND SPORTING GOODS</t>
+        </is>
+      </c>
+      <c r="C27" s="8" t="n">
+        <v>2280.535167</v>
+      </c>
+      <c r="D27" s="9" t="n">
+        <v>4.552530863047624</v>
+      </c>
+      <c r="E27" s="8" t="n">
+        <v>2033.014089</v>
+      </c>
+      <c r="F27" s="9" t="n">
+        <v>4.175236235153386</v>
+      </c>
+      <c r="G27" s="8" t="n">
+        <v>1851.033846</v>
+      </c>
+      <c r="H27" s="9" t="n">
+        <v>3.728383524588819</v>
+      </c>
+      <c r="I27" s="8" t="n">
+        <v>860.741582</v>
+      </c>
+      <c r="J27" s="9" t="n">
+        <v>2.787785451798146</v>
+      </c>
+      <c r="K27" s="9" t="n">
+        <v>-15.00078228189161</v>
+      </c>
     </row>
     <row r="28">
-      <c r="A28" s="11" t="n"/>
-      <c r="C28" s="12" t="n"/>
-      <c r="D28" s="13" t="n"/>
-      <c r="E28" s="12" t="n"/>
-      <c r="F28" s="13" t="n"/>
-      <c r="G28" s="12" t="n"/>
-      <c r="H28" s="13" t="n"/>
-      <c r="I28" s="12" t="n"/>
-      <c r="J28" s="13" t="n"/>
-      <c r="K28" s="13" t="n"/>
+      <c r="A28" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B28" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C28" s="8" t="n">
+        <v>21229.390202</v>
+      </c>
+      <c r="D28" s="9" t="n">
+        <v>42.37928688704401</v>
+      </c>
+      <c r="E28" s="8" t="n">
+        <v>20346.547665</v>
+      </c>
+      <c r="F28" s="9" t="n">
+        <v>41.78605722942607</v>
+      </c>
+      <c r="G28" s="8" t="n">
+        <v>19080.052872</v>
+      </c>
+      <c r="H28" s="9" t="n">
+        <v>38.43136360254775</v>
+      </c>
+      <c r="I28" s="8" t="n">
+        <v>9921.729442</v>
+      </c>
+      <c r="J28" s="9" t="n">
+        <v>32.13467732186886</v>
+      </c>
+      <c r="K28" s="9" t="n">
+        <v>-7.379595406859063</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="11" t="n"/>
@@ -971,136 +1268,465 @@
       <c r="K30" s="13" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="11" t="n"/>
-      <c r="C31" s="12" t="n"/>
-      <c r="D31" s="13" t="n"/>
-      <c r="E31" s="12" t="n"/>
-      <c r="F31" s="13" t="n"/>
-      <c r="G31" s="12" t="n"/>
-      <c r="H31" s="13" t="n"/>
-      <c r="I31" s="12" t="n"/>
-      <c r="J31" s="13" t="n"/>
-      <c r="K31" s="13" t="n"/>
+      <c r="A31" s="11" t="inlineStr">
+        <is>
+          <t>897</t>
+        </is>
+      </c>
+      <c r="B31" s="1" t="inlineStr">
+        <is>
+          <t>JEWELLERY, GOLDSMITHS' AND SILVERSMITHS' WARES, AND OTHER ARTICLES OF PRECIOUS OR SEMI-PRECIOUS MATERIALS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C31" s="8" t="n">
+        <v>589.710853</v>
+      </c>
+      <c r="D31" s="9" t="n">
+        <v>65.71396897684239</v>
+      </c>
+      <c r="E31" s="8" t="n">
+        <v>433.231512</v>
+      </c>
+      <c r="F31" s="9" t="n">
+        <v>61.63460707074274</v>
+      </c>
+      <c r="G31" s="8" t="n">
+        <v>648.706153</v>
+      </c>
+      <c r="H31" s="9" t="n">
+        <v>74.04802867565412</v>
+      </c>
+      <c r="I31" s="8" t="n">
+        <v>676.299235</v>
+      </c>
+      <c r="J31" s="9" t="n">
+        <v>83.33237315552415</v>
+      </c>
+      <c r="K31" s="9" t="n">
+        <v>188.5853615769581</v>
+      </c>
     </row>
     <row r="32">
-      <c r="A32" s="11" t="n"/>
-      <c r="C32" s="12" t="n"/>
-      <c r="D32" s="13" t="n"/>
-      <c r="E32" s="12" t="n"/>
-      <c r="F32" s="13" t="n"/>
-      <c r="G32" s="12" t="n"/>
-      <c r="H32" s="13" t="n"/>
-      <c r="I32" s="12" t="n"/>
-      <c r="J32" s="13" t="n"/>
-      <c r="K32" s="13" t="n"/>
+      <c r="A32" s="11" t="inlineStr">
+        <is>
+          <t>098</t>
+        </is>
+      </c>
+      <c r="B32" s="1" t="inlineStr">
+        <is>
+          <t>EDIBLE PRODUCTS AND PREPARATIONS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C32" s="8" t="n">
+        <v>107.178877</v>
+      </c>
+      <c r="D32" s="9" t="n">
+        <v>11.94339456755904</v>
+      </c>
+      <c r="E32" s="8" t="n">
+        <v>109.163488</v>
+      </c>
+      <c r="F32" s="9" t="n">
+        <v>15.53037695316988</v>
+      </c>
+      <c r="G32" s="8" t="n">
+        <v>99.44767899999999</v>
+      </c>
+      <c r="H32" s="9" t="n">
+        <v>11.35167988196845</v>
+      </c>
+      <c r="I32" s="8" t="n">
+        <v>62.40115</v>
+      </c>
+      <c r="J32" s="9" t="n">
+        <v>7.68895726628145</v>
+      </c>
+      <c r="K32" s="9" t="n">
+        <v>4.725259268698534</v>
+      </c>
     </row>
     <row r="33">
-      <c r="A33" s="11" t="n"/>
-      <c r="C33" s="12" t="n"/>
-      <c r="D33" s="13" t="n"/>
-      <c r="E33" s="12" t="n"/>
-      <c r="F33" s="13" t="n"/>
-      <c r="G33" s="12" t="n"/>
-      <c r="H33" s="13" t="n"/>
-      <c r="I33" s="12" t="n"/>
-      <c r="J33" s="13" t="n"/>
-      <c r="K33" s="13" t="n"/>
+      <c r="A33" s="11" t="inlineStr">
+        <is>
+          <t>892</t>
+        </is>
+      </c>
+      <c r="B33" s="1" t="inlineStr">
+        <is>
+          <t>PRINTED MATTER</t>
+        </is>
+      </c>
+      <c r="C33" s="8" t="n">
+        <v>59.713553</v>
+      </c>
+      <c r="D33" s="9" t="n">
+        <v>6.654133206768427</v>
+      </c>
+      <c r="E33" s="8" t="n">
+        <v>37.484453</v>
+      </c>
+      <c r="F33" s="9" t="n">
+        <v>5.33280582765347</v>
+      </c>
+      <c r="G33" s="8" t="n">
+        <v>30.275492</v>
+      </c>
+      <c r="H33" s="9" t="n">
+        <v>3.455864399340046</v>
+      </c>
+      <c r="I33" s="8" t="n">
+        <v>12.175075</v>
+      </c>
+      <c r="J33" s="9" t="n">
+        <v>1.500190803995946</v>
+      </c>
+      <c r="K33" s="9" t="n">
+        <v>-29.04261269377003</v>
+      </c>
     </row>
     <row r="34">
-      <c r="A34" s="11" t="n"/>
-      <c r="C34" s="12" t="n"/>
-      <c r="D34" s="13" t="n"/>
-      <c r="E34" s="12" t="n"/>
-      <c r="F34" s="13" t="n"/>
-      <c r="G34" s="12" t="n"/>
-      <c r="H34" s="13" t="n"/>
-      <c r="I34" s="12" t="n"/>
-      <c r="J34" s="13" t="n"/>
-      <c r="K34" s="13" t="n"/>
+      <c r="A34" s="11" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="B34" s="1" t="inlineStr">
+        <is>
+          <t>NON-ALCOHOLIC BEVERAGES, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C34" s="8" t="n">
+        <v>11.220146</v>
+      </c>
+      <c r="D34" s="9" t="n">
+        <v>1.250308218695175</v>
+      </c>
+      <c r="E34" s="8" t="n">
+        <v>13.220103</v>
+      </c>
+      <c r="F34" s="9" t="n">
+        <v>1.880786210767945</v>
+      </c>
+      <c r="G34" s="8" t="n">
+        <v>13.123599</v>
+      </c>
+      <c r="H34" s="9" t="n">
+        <v>1.498022842215566</v>
+      </c>
+      <c r="I34" s="8" t="n">
+        <v>5.938932</v>
+      </c>
+      <c r="J34" s="9" t="n">
+        <v>0.7317845000509032</v>
+      </c>
+      <c r="K34" s="9" t="n">
+        <v>-32.64449757992618</v>
+      </c>
     </row>
     <row r="35">
-      <c r="A35" s="11" t="n"/>
-      <c r="C35" s="12" t="n"/>
-      <c r="D35" s="13" t="n"/>
-      <c r="E35" s="12" t="n"/>
-      <c r="F35" s="13" t="n"/>
-      <c r="G35" s="12" t="n"/>
-      <c r="H35" s="13" t="n"/>
-      <c r="I35" s="12" t="n"/>
-      <c r="J35" s="13" t="n"/>
-      <c r="K35" s="13" t="n"/>
+      <c r="A35" s="11" t="inlineStr">
+        <is>
+          <t>048</t>
+        </is>
+      </c>
+      <c r="B35" s="1" t="inlineStr">
+        <is>
+          <t>CEREAL PREPARATIONS AND PREPARATIONS OF FLOUR OR STARCH OF FRUITS OR VEGETABLES</t>
+        </is>
+      </c>
+      <c r="C35" s="8" t="n">
+        <v>12.42693</v>
+      </c>
+      <c r="D35" s="9" t="n">
+        <v>1.384785252540353</v>
+      </c>
+      <c r="E35" s="8" t="n">
+        <v>8.490384000000001</v>
+      </c>
+      <c r="F35" s="9" t="n">
+        <v>1.20790262763647</v>
+      </c>
+      <c r="G35" s="8" t="n">
+        <v>6.764764</v>
+      </c>
+      <c r="H35" s="9" t="n">
+        <v>0.7721792622738275</v>
+      </c>
+      <c r="I35" s="8" t="n">
+        <v>4.637748</v>
+      </c>
+      <c r="J35" s="9" t="n">
+        <v>0.5714549520927461</v>
+      </c>
+      <c r="K35" s="9" t="n">
+        <v>-18.43552310151794</v>
+      </c>
     </row>
     <row r="36">
-      <c r="A36" s="11" t="n"/>
-      <c r="C36" s="12" t="n"/>
-      <c r="D36" s="13" t="n"/>
-      <c r="E36" s="12" t="n"/>
-      <c r="F36" s="13" t="n"/>
-      <c r="G36" s="12" t="n"/>
-      <c r="H36" s="13" t="n"/>
-      <c r="I36" s="12" t="n"/>
-      <c r="J36" s="13" t="n"/>
-      <c r="K36" s="13" t="n"/>
+      <c r="A36" s="11" t="inlineStr">
+        <is>
+          <t>712</t>
+        </is>
+      </c>
+      <c r="B36" s="1" t="inlineStr">
+        <is>
+          <t>STEAM TURBINES AND OTHER VAPOUR TURBINES, AND PARTS THEREOF, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C36" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E36" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G36" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I36" s="8" t="n">
+        <v>4.005971</v>
+      </c>
+      <c r="J36" s="9" t="n">
+        <v>0.493608528512099</v>
+      </c>
+      <c r="K36" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="37">
-      <c r="A37" s="11" t="n"/>
-      <c r="C37" s="12" t="n"/>
-      <c r="D37" s="13" t="n"/>
-      <c r="E37" s="12" t="n"/>
-      <c r="F37" s="13" t="n"/>
-      <c r="G37" s="12" t="n"/>
-      <c r="H37" s="13" t="n"/>
-      <c r="I37" s="12" t="n"/>
-      <c r="J37" s="13" t="n"/>
-      <c r="K37" s="13" t="n"/>
+      <c r="A37" s="11" t="inlineStr">
+        <is>
+          <t>743</t>
+        </is>
+      </c>
+      <c r="B37" s="1" t="inlineStr">
+        <is>
+          <t>PUMPS (OTHER THAN PUMPS FOR LIQUIDS), AIR COMPRESSORS AND FANS; VENTILATING HOODS INCORPORATING A FAN; CENTRIFUGES; FILTERING APPARATUS; AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C37" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E37" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G37" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I37" s="8" t="n">
+        <v>3.848371</v>
+      </c>
+      <c r="J37" s="9" t="n">
+        <v>0.4741893404816547</v>
+      </c>
+      <c r="K37" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="38">
-      <c r="A38" s="11" t="n"/>
-      <c r="C38" s="12" t="n"/>
-      <c r="D38" s="13" t="n"/>
-      <c r="E38" s="12" t="n"/>
-      <c r="F38" s="13" t="n"/>
-      <c r="G38" s="12" t="n"/>
-      <c r="H38" s="13" t="n"/>
-      <c r="I38" s="12" t="n"/>
-      <c r="J38" s="13" t="n"/>
-      <c r="K38" s="13" t="n"/>
+      <c r="A38" s="11" t="inlineStr">
+        <is>
+          <t>759</t>
+        </is>
+      </c>
+      <c r="B38" s="1" t="inlineStr">
+        <is>
+          <t>PARTS AND ACCESSORIES (OTHER THAN COVERS, CARRYING CASES AND THE LIKE) SUITABLE FOR USE SOLELY WITH MACHINES FALLING WITHIN GROUPS 751 AND 752</t>
+        </is>
+      </c>
+      <c r="C38" s="8" t="n">
+        <v>5.612797</v>
+      </c>
+      <c r="D38" s="9" t="n">
+        <v>0.6254576561630859</v>
+      </c>
+      <c r="E38" s="8" t="n">
+        <v>7.679347</v>
+      </c>
+      <c r="F38" s="9" t="n">
+        <v>1.092518715270387</v>
+      </c>
+      <c r="G38" s="8" t="n">
+        <v>1.875256</v>
+      </c>
+      <c r="H38" s="9" t="n">
+        <v>0.2140553306300957</v>
+      </c>
+      <c r="I38" s="8" t="n">
+        <v>3.504862</v>
+      </c>
+      <c r="J38" s="9" t="n">
+        <v>0.4318627804489779</v>
+      </c>
+      <c r="K38" s="9" t="n">
+        <v>211.44888527122</v>
+      </c>
     </row>
     <row r="39">
-      <c r="A39" s="11" t="n"/>
-      <c r="C39" s="12" t="n"/>
-      <c r="D39" s="13" t="n"/>
-      <c r="E39" s="12" t="n"/>
-      <c r="F39" s="13" t="n"/>
-      <c r="G39" s="12" t="n"/>
-      <c r="H39" s="13" t="n"/>
-      <c r="I39" s="12" t="n"/>
-      <c r="J39" s="13" t="n"/>
-      <c r="K39" s="13" t="n"/>
+      <c r="A39" s="11" t="inlineStr">
+        <is>
+          <t>751</t>
+        </is>
+      </c>
+      <c r="B39" s="1" t="inlineStr">
+        <is>
+          <t>OFFICE MACHINES</t>
+        </is>
+      </c>
+      <c r="C39" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D39" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="E39" s="8" t="n">
+        <v>1.33908</v>
+      </c>
+      <c r="F39" s="9" t="n">
+        <v>0.1905070784331362</v>
+      </c>
+      <c r="G39" s="8" t="n">
+        <v>3.030335</v>
+      </c>
+      <c r="H39" s="9" t="n">
+        <v>0.3459044313656114</v>
+      </c>
+      <c r="I39" s="8" t="n">
+        <v>3.371396</v>
+      </c>
+      <c r="J39" s="9" t="n">
+        <v>0.4154173404129926</v>
+      </c>
+      <c r="K39" s="9" t="n">
+        <v>168.6859445381313</v>
+      </c>
     </row>
     <row r="40">
-      <c r="A40" s="11" t="n"/>
-      <c r="C40" s="12" t="n"/>
-      <c r="D40" s="13" t="n"/>
-      <c r="E40" s="12" t="n"/>
-      <c r="F40" s="13" t="n"/>
-      <c r="G40" s="12" t="n"/>
-      <c r="H40" s="13" t="n"/>
-      <c r="I40" s="12" t="n"/>
-      <c r="J40" s="13" t="n"/>
-      <c r="K40" s="13" t="n"/>
+      <c r="A40" s="11" t="inlineStr">
+        <is>
+          <t>694</t>
+        </is>
+      </c>
+      <c r="B40" s="1" t="inlineStr">
+        <is>
+          <t>NAILS, SCREWS, NUTS, BOLTS, RIVETS AND THE LIKE, OF IRON, STEEL, COPPER OR ALUMINIUM</t>
+        </is>
+      </c>
+      <c r="C40" s="8" t="n">
+        <v>18.331904</v>
+      </c>
+      <c r="D40" s="9" t="n">
+        <v>2.042801424823791</v>
+      </c>
+      <c r="E40" s="8" t="n">
+        <v>8.817527999999999</v>
+      </c>
+      <c r="F40" s="9" t="n">
+        <v>1.254444468054466</v>
+      </c>
+      <c r="G40" s="8" t="n">
+        <v>4.040934</v>
+      </c>
+      <c r="H40" s="9" t="n">
+        <v>0.4612615362512613</v>
+      </c>
+      <c r="I40" s="8" t="n">
+        <v>2.796462</v>
+      </c>
+      <c r="J40" s="9" t="n">
+        <v>0.3445750088705089</v>
+      </c>
+      <c r="K40" s="9" t="n">
+        <v>26.12947514270662</v>
+      </c>
     </row>
     <row r="41">
-      <c r="A41" s="11" t="n"/>
-      <c r="C41" s="12" t="n"/>
-      <c r="D41" s="13" t="n"/>
-      <c r="E41" s="12" t="n"/>
-      <c r="F41" s="13" t="n"/>
-      <c r="G41" s="12" t="n"/>
-      <c r="H41" s="13" t="n"/>
-      <c r="I41" s="12" t="n"/>
-      <c r="J41" s="13" t="n"/>
-      <c r="K41" s="13" t="n"/>
+      <c r="A41" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B41" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C41" s="8" t="n">
+        <v>92.87940399999999</v>
+      </c>
+      <c r="D41" s="9" t="n">
+        <v>10.34994394624718</v>
+      </c>
+      <c r="E41" s="8" t="n">
+        <v>83.477121</v>
+      </c>
+      <c r="F41" s="9" t="n">
+        <v>11.8760510482715</v>
+      </c>
+      <c r="G41" s="8" t="n">
+        <v>68.797129</v>
+      </c>
+      <c r="H41" s="9" t="n">
+        <v>7.853003640301027</v>
+      </c>
+      <c r="I41" s="8" t="n">
+        <v>32.589231</v>
+      </c>
+      <c r="J41" s="9" t="n">
+        <v>4.015586323328571</v>
+      </c>
+      <c r="K41" s="9" t="n">
+        <v>-25.63216490469613</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="11" t="n"/>
@@ -1132,136 +1758,433 @@
       <c r="K43" s="13" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="11" t="n"/>
-      <c r="C44" s="12" t="n"/>
-      <c r="D44" s="13" t="n"/>
-      <c r="E44" s="12" t="n"/>
-      <c r="F44" s="13" t="n"/>
-      <c r="G44" s="12" t="n"/>
-      <c r="H44" s="13" t="n"/>
-      <c r="I44" s="12" t="n"/>
-      <c r="J44" s="13" t="n"/>
-      <c r="K44" s="13" t="n"/>
+      <c r="A44" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B44" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C44" s="8" t="n">
+        <v>6499.01334</v>
+      </c>
+      <c r="D44" s="9" t="n">
+        <v>13.21034391768317</v>
+      </c>
+      <c r="E44" s="8" t="n">
+        <v>6900.250738</v>
+      </c>
+      <c r="F44" s="9" t="n">
+        <v>14.37873060712664</v>
+      </c>
+      <c r="G44" s="8" t="n">
+        <v>10324.165969</v>
+      </c>
+      <c r="H44" s="9" t="n">
+        <v>21.1686460091567</v>
+      </c>
+      <c r="I44" s="8" t="n">
+        <v>5976.18294</v>
+      </c>
+      <c r="J44" s="9" t="n">
+        <v>19.87827466407375</v>
+      </c>
+      <c r="K44" s="9" t="n">
+        <v>18.27543003652179</v>
+      </c>
     </row>
     <row r="45">
-      <c r="A45" s="11" t="n"/>
-      <c r="C45" s="12" t="n"/>
-      <c r="D45" s="13" t="n"/>
-      <c r="E45" s="12" t="n"/>
-      <c r="F45" s="13" t="n"/>
-      <c r="G45" s="12" t="n"/>
-      <c r="H45" s="13" t="n"/>
-      <c r="I45" s="12" t="n"/>
-      <c r="J45" s="13" t="n"/>
-      <c r="K45" s="13" t="n"/>
+      <c r="A45" s="11" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="B45" s="1" t="inlineStr">
+        <is>
+          <t>WORKS OF ART, COLLECTORS' PIECES AND ANTIQUES</t>
+        </is>
+      </c>
+      <c r="C45" s="8" t="n">
+        <v>1119.767605</v>
+      </c>
+      <c r="D45" s="9" t="n">
+        <v>2.276117065168295</v>
+      </c>
+      <c r="E45" s="8" t="n">
+        <v>874.184723</v>
+      </c>
+      <c r="F45" s="9" t="n">
+        <v>1.821624620633115</v>
+      </c>
+      <c r="G45" s="8" t="n">
+        <v>1262.733951</v>
+      </c>
+      <c r="H45" s="9" t="n">
+        <v>2.589106770728515</v>
+      </c>
+      <c r="I45" s="8" t="n">
+        <v>3750.351876</v>
+      </c>
+      <c r="J45" s="9" t="n">
+        <v>12.47460551769057</v>
+      </c>
+      <c r="K45" s="9" t="n">
+        <v>516.035210701184</v>
+      </c>
     </row>
     <row r="46">
-      <c r="A46" s="11" t="n"/>
-      <c r="C46" s="12" t="n"/>
-      <c r="D46" s="13" t="n"/>
-      <c r="E46" s="12" t="n"/>
-      <c r="F46" s="13" t="n"/>
-      <c r="G46" s="12" t="n"/>
-      <c r="H46" s="13" t="n"/>
-      <c r="I46" s="12" t="n"/>
-      <c r="J46" s="13" t="n"/>
-      <c r="K46" s="13" t="n"/>
+      <c r="A46" s="11" t="inlineStr">
+        <is>
+          <t>897</t>
+        </is>
+      </c>
+      <c r="B46" s="1" t="inlineStr">
+        <is>
+          <t>JEWELLERY, GOLDSMITHS' AND SILVERSMITHS' WARES, AND OTHER ARTICLES OF PRECIOUS OR SEMI-PRECIOUS MATERIALS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C46" s="8" t="n">
+        <v>3975.286947</v>
+      </c>
+      <c r="D46" s="9" t="n">
+        <v>8.080443137134221</v>
+      </c>
+      <c r="E46" s="8" t="n">
+        <v>4351.264085</v>
+      </c>
+      <c r="F46" s="9" t="n">
+        <v>9.067156608400969</v>
+      </c>
+      <c r="G46" s="8" t="n">
+        <v>2935.859659</v>
+      </c>
+      <c r="H46" s="9" t="n">
+        <v>6.019679850221759</v>
+      </c>
+      <c r="I46" s="8" t="n">
+        <v>1760.822057</v>
+      </c>
+      <c r="J46" s="9" t="n">
+        <v>5.856933235649129</v>
+      </c>
+      <c r="K46" s="9" t="n">
+        <v>7.064633421246036</v>
+      </c>
     </row>
     <row r="47">
-      <c r="A47" s="11" t="n"/>
-      <c r="C47" s="12" t="n"/>
-      <c r="D47" s="13" t="n"/>
-      <c r="E47" s="12" t="n"/>
-      <c r="F47" s="13" t="n"/>
-      <c r="G47" s="12" t="n"/>
-      <c r="H47" s="13" t="n"/>
-      <c r="I47" s="12" t="n"/>
-      <c r="J47" s="13" t="n"/>
-      <c r="K47" s="13" t="n"/>
+      <c r="A47" s="11" t="inlineStr">
+        <is>
+          <t>752</t>
+        </is>
+      </c>
+      <c r="B47" s="1" t="inlineStr">
+        <is>
+          <t>AUTOMATIC DATA PROCESSING MACHINES &amp; UNITS THEREOF; MAGNETIC OR OPTICAL READERS, MACHINES FOR TRANSCRIBING DATA ONTO DATA MEDIA IN CODED FORM AND FOR PROCESSING SUCH DATA, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C47" s="8" t="n">
+        <v>3557.79162</v>
+      </c>
+      <c r="D47" s="9" t="n">
+        <v>7.231813265927402</v>
+      </c>
+      <c r="E47" s="8" t="n">
+        <v>3258.003999</v>
+      </c>
+      <c r="F47" s="9" t="n">
+        <v>6.789023123548163</v>
+      </c>
+      <c r="G47" s="8" t="n">
+        <v>3055.31534</v>
+      </c>
+      <c r="H47" s="9" t="n">
+        <v>6.264611502082512</v>
+      </c>
+      <c r="I47" s="8" t="n">
+        <v>1723.98542</v>
+      </c>
+      <c r="J47" s="9" t="n">
+        <v>5.734405395497907</v>
+      </c>
+      <c r="K47" s="9" t="n">
+        <v>14.53012009853527</v>
+      </c>
     </row>
     <row r="48">
-      <c r="A48" s="11" t="n"/>
-      <c r="C48" s="12" t="n"/>
-      <c r="D48" s="13" t="n"/>
-      <c r="E48" s="12" t="n"/>
-      <c r="F48" s="13" t="n"/>
-      <c r="G48" s="12" t="n"/>
-      <c r="H48" s="13" t="n"/>
-      <c r="I48" s="12" t="n"/>
-      <c r="J48" s="13" t="n"/>
-      <c r="K48" s="13" t="n"/>
+      <c r="A48" s="11" t="inlineStr">
+        <is>
+          <t>667</t>
+        </is>
+      </c>
+      <c r="B48" s="1" t="inlineStr">
+        <is>
+          <t>PEARLS, PRECIOUS AND SEMI-PRECIOUS STONES, UNWORKED OR WORKED</t>
+        </is>
+      </c>
+      <c r="C48" s="8" t="n">
+        <v>1071.555655</v>
+      </c>
+      <c r="D48" s="9" t="n">
+        <v>2.178118121771428</v>
+      </c>
+      <c r="E48" s="8" t="n">
+        <v>913.992846</v>
+      </c>
+      <c r="F48" s="9" t="n">
+        <v>1.904576718799661</v>
+      </c>
+      <c r="G48" s="8" t="n">
+        <v>1265.440766</v>
+      </c>
+      <c r="H48" s="9" t="n">
+        <v>2.594656817940012</v>
+      </c>
+      <c r="I48" s="8" t="n">
+        <v>1529.935064</v>
+      </c>
+      <c r="J48" s="9" t="n">
+        <v>5.088945523543368</v>
+      </c>
+      <c r="K48" s="9" t="n">
+        <v>136.1379356584482</v>
+      </c>
     </row>
     <row r="49">
-      <c r="A49" s="11" t="n"/>
-      <c r="C49" s="12" t="n"/>
-      <c r="D49" s="13" t="n"/>
-      <c r="E49" s="12" t="n"/>
-      <c r="F49" s="13" t="n"/>
-      <c r="G49" s="12" t="n"/>
-      <c r="H49" s="13" t="n"/>
-      <c r="I49" s="12" t="n"/>
-      <c r="J49" s="13" t="n"/>
-      <c r="K49" s="13" t="n"/>
+      <c r="A49" s="11" t="inlineStr">
+        <is>
+          <t>714</t>
+        </is>
+      </c>
+      <c r="B49" s="1" t="inlineStr">
+        <is>
+          <t>ENGINES AND MOTORS, NON-ELECTRIC (OTHER THAN THOSE OF GROUPS 712, 713 AND 718); PARTS, N.E.S. OF THESE ENGINES AND MOTORS</t>
+        </is>
+      </c>
+      <c r="C49" s="8" t="n">
+        <v>2539.690161</v>
+      </c>
+      <c r="D49" s="9" t="n">
+        <v>5.162349839270547</v>
+      </c>
+      <c r="E49" s="8" t="n">
+        <v>2960.03884</v>
+      </c>
+      <c r="F49" s="9" t="n">
+        <v>6.168123838254589</v>
+      </c>
+      <c r="G49" s="8" t="n">
+        <v>3145.476433</v>
+      </c>
+      <c r="H49" s="9" t="n">
+        <v>6.449477598505847</v>
+      </c>
+      <c r="I49" s="8" t="n">
+        <v>1351.498204</v>
+      </c>
+      <c r="J49" s="9" t="n">
+        <v>4.495420032626106</v>
+      </c>
+      <c r="K49" s="9" t="n">
+        <v>-29.43686405483119</v>
+      </c>
     </row>
     <row r="50">
-      <c r="A50" s="11" t="n"/>
-      <c r="C50" s="12" t="n"/>
-      <c r="D50" s="13" t="n"/>
-      <c r="E50" s="12" t="n"/>
-      <c r="F50" s="13" t="n"/>
-      <c r="G50" s="12" t="n"/>
-      <c r="H50" s="13" t="n"/>
-      <c r="I50" s="12" t="n"/>
-      <c r="J50" s="13" t="n"/>
-      <c r="K50" s="13" t="n"/>
+      <c r="A50" s="11" t="inlineStr">
+        <is>
+          <t>845</t>
+        </is>
+      </c>
+      <c r="B50" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES OF APPAREL, OF TEXTILE FABRICS, WHETHER OR NOT KNITTED OR CROCHETED, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C50" s="8" t="n">
+        <v>4028.752364</v>
+      </c>
+      <c r="D50" s="9" t="n">
+        <v>8.189120640829319</v>
+      </c>
+      <c r="E50" s="8" t="n">
+        <v>3332.553635</v>
+      </c>
+      <c r="F50" s="9" t="n">
+        <v>6.944369526686847</v>
+      </c>
+      <c r="G50" s="8" t="n">
+        <v>2828.474331</v>
+      </c>
+      <c r="H50" s="9" t="n">
+        <v>5.799497222217246</v>
+      </c>
+      <c r="I50" s="8" t="n">
+        <v>1326.71199</v>
+      </c>
+      <c r="J50" s="9" t="n">
+        <v>4.412974904235423</v>
+      </c>
+      <c r="K50" s="9" t="n">
+        <v>-10.73985038870621</v>
+      </c>
     </row>
     <row r="51">
-      <c r="A51" s="11" t="n"/>
-      <c r="C51" s="12" t="n"/>
-      <c r="D51" s="13" t="n"/>
-      <c r="E51" s="12" t="n"/>
-      <c r="F51" s="13" t="n"/>
-      <c r="G51" s="12" t="n"/>
-      <c r="H51" s="13" t="n"/>
-      <c r="I51" s="12" t="n"/>
-      <c r="J51" s="13" t="n"/>
-      <c r="K51" s="13" t="n"/>
+      <c r="A51" s="11" t="inlineStr">
+        <is>
+          <t>772</t>
+        </is>
+      </c>
+      <c r="B51" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL APPARATUS FOR SWITCHING ELECTRICAL CIRCUITS; ELECTRICAL RESISTORS; PRINTED CIRCUITS; BOARDS, CABINETS AND OTHER BASES ETC, FOR ELECTRIC CONTROL OF ELECTRICITY</t>
+        </is>
+      </c>
+      <c r="C51" s="8" t="n">
+        <v>1582.039626</v>
+      </c>
+      <c r="D51" s="9" t="n">
+        <v>3.215763140880529</v>
+      </c>
+      <c r="E51" s="8" t="n">
+        <v>1577.110086</v>
+      </c>
+      <c r="F51" s="9" t="n">
+        <v>3.286379281769271</v>
+      </c>
+      <c r="G51" s="8" t="n">
+        <v>1684.04695</v>
+      </c>
+      <c r="H51" s="9" t="n">
+        <v>3.452965968814523</v>
+      </c>
+      <c r="I51" s="8" t="n">
+        <v>1064.346492</v>
+      </c>
+      <c r="J51" s="9" t="n">
+        <v>3.540281835100478</v>
+      </c>
+      <c r="K51" s="9" t="n">
+        <v>15.9993551489203</v>
+      </c>
     </row>
     <row r="52">
-      <c r="A52" s="11" t="n"/>
-      <c r="C52" s="12" t="n"/>
-      <c r="D52" s="13" t="n"/>
-      <c r="E52" s="12" t="n"/>
-      <c r="F52" s="13" t="n"/>
-      <c r="G52" s="12" t="n"/>
-      <c r="H52" s="13" t="n"/>
-      <c r="I52" s="12" t="n"/>
-      <c r="J52" s="13" t="n"/>
-      <c r="K52" s="13" t="n"/>
+      <c r="A52" s="11" t="inlineStr">
+        <is>
+          <t>778</t>
+        </is>
+      </c>
+      <c r="B52" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL MACHINERY AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C52" s="8" t="n">
+        <v>1606.809032</v>
+      </c>
+      <c r="D52" s="9" t="n">
+        <v>3.26611114830541</v>
+      </c>
+      <c r="E52" s="8" t="n">
+        <v>1700.944671</v>
+      </c>
+      <c r="F52" s="9" t="n">
+        <v>3.544425576776286</v>
+      </c>
+      <c r="G52" s="8" t="n">
+        <v>1555.966826</v>
+      </c>
+      <c r="H52" s="9" t="n">
+        <v>3.190350778986505</v>
+      </c>
+      <c r="I52" s="8" t="n">
+        <v>927.0876950000001</v>
+      </c>
+      <c r="J52" s="9" t="n">
+        <v>3.083724849777278</v>
+      </c>
+      <c r="K52" s="9" t="n">
+        <v>9.802757484313496</v>
+      </c>
     </row>
     <row r="53">
-      <c r="A53" s="11" t="n"/>
-      <c r="C53" s="12" t="n"/>
-      <c r="D53" s="13" t="n"/>
-      <c r="E53" s="12" t="n"/>
-      <c r="F53" s="13" t="n"/>
-      <c r="G53" s="12" t="n"/>
-      <c r="H53" s="13" t="n"/>
-      <c r="I53" s="12" t="n"/>
-      <c r="J53" s="13" t="n"/>
-      <c r="K53" s="13" t="n"/>
+      <c r="A53" s="11" t="inlineStr">
+        <is>
+          <t>894</t>
+        </is>
+      </c>
+      <c r="B53" s="1" t="inlineStr">
+        <is>
+          <t>BABY CARRIAGES, TOYS, GAMES AND SPORTING GOODS</t>
+        </is>
+      </c>
+      <c r="C53" s="8" t="n">
+        <v>2276.745583</v>
+      </c>
+      <c r="D53" s="9" t="n">
+        <v>4.627870507570934</v>
+      </c>
+      <c r="E53" s="8" t="n">
+        <v>2030.974116</v>
+      </c>
+      <c r="F53" s="9" t="n">
+        <v>4.232140366028995</v>
+      </c>
+      <c r="G53" s="8" t="n">
+        <v>1847.280802</v>
+      </c>
+      <c r="H53" s="9" t="n">
+        <v>3.78766028117589</v>
+      </c>
+      <c r="I53" s="8" t="n">
+        <v>858.272142</v>
+      </c>
+      <c r="J53" s="9" t="n">
+        <v>2.854827160829669</v>
+      </c>
+      <c r="K53" s="9" t="n">
+        <v>-15.01071563695281</v>
+      </c>
     </row>
     <row r="54">
-      <c r="A54" s="11" t="n"/>
-      <c r="C54" s="12" t="n"/>
-      <c r="D54" s="13" t="n"/>
-      <c r="E54" s="12" t="n"/>
-      <c r="F54" s="13" t="n"/>
-      <c r="G54" s="12" t="n"/>
-      <c r="H54" s="13" t="n"/>
-      <c r="I54" s="12" t="n"/>
-      <c r="J54" s="13" t="n"/>
-      <c r="K54" s="13" t="n"/>
+      <c r="A54" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B54" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C54" s="8" t="n">
+        <v>20938.945833</v>
+      </c>
+      <c r="D54" s="9" t="n">
+        <v>42.56194921545875</v>
+      </c>
+      <c r="E54" s="8" t="n">
+        <v>20089.972321</v>
+      </c>
+      <c r="F54" s="9" t="n">
+        <v>41.86344973197546</v>
+      </c>
+      <c r="G54" s="8" t="n">
+        <v>18866.26554</v>
+      </c>
+      <c r="H54" s="9" t="n">
+        <v>38.68334720017049</v>
+      </c>
+      <c r="I54" s="8" t="n">
+        <v>9794.697684999999</v>
+      </c>
+      <c r="J54" s="9" t="n">
+        <v>32.57960688097632</v>
+      </c>
+      <c r="K54" s="9" t="n">
+        <v>-7.434181016894915</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="11" t="n"/>
@@ -1293,136 +2216,433 @@
       <c r="K56" s="13" t="n"/>
     </row>
     <row r="57">
-      <c r="A57" s="11" t="n"/>
-      <c r="C57" s="12" t="n"/>
-      <c r="D57" s="13" t="n"/>
-      <c r="E57" s="12" t="n"/>
-      <c r="F57" s="13" t="n"/>
-      <c r="G57" s="12" t="n"/>
-      <c r="H57" s="13" t="n"/>
-      <c r="I57" s="12" t="n"/>
-      <c r="J57" s="13" t="n"/>
-      <c r="K57" s="13" t="n"/>
+      <c r="A57" s="11" t="inlineStr">
+        <is>
+          <t>714</t>
+        </is>
+      </c>
+      <c r="B57" s="1" t="inlineStr">
+        <is>
+          <t>ENGINES AND MOTORS, NON-ELECTRIC (OTHER THAN THOSE OF GROUPS 712, 713 AND 718); PARTS, N.E.S. OF THESE ENGINES AND MOTORS</t>
+        </is>
+      </c>
+      <c r="C57" s="8" t="n">
+        <v>12460.9665</v>
+      </c>
+      <c r="D57" s="9" t="n">
+        <v>27.84475559338424</v>
+      </c>
+      <c r="E57" s="8" t="n">
+        <v>11796.040294</v>
+      </c>
+      <c r="F57" s="9" t="n">
+        <v>23.41845308977194</v>
+      </c>
+      <c r="G57" s="8" t="n">
+        <v>16981.359537</v>
+      </c>
+      <c r="H57" s="9" t="n">
+        <v>26.60127354055459</v>
+      </c>
+      <c r="I57" s="8" t="n">
+        <v>9935.836507</v>
+      </c>
+      <c r="J57" s="9" t="n">
+        <v>25.18028026943433</v>
+      </c>
+      <c r="K57" s="9" t="n">
+        <v>12.00151230095601</v>
+      </c>
     </row>
     <row r="58">
-      <c r="A58" s="11" t="n"/>
-      <c r="C58" s="12" t="n"/>
-      <c r="D58" s="13" t="n"/>
-      <c r="E58" s="12" t="n"/>
-      <c r="F58" s="13" t="n"/>
-      <c r="G58" s="12" t="n"/>
-      <c r="H58" s="13" t="n"/>
-      <c r="I58" s="12" t="n"/>
-      <c r="J58" s="13" t="n"/>
-      <c r="K58" s="13" t="n"/>
+      <c r="A58" s="11" t="inlineStr">
+        <is>
+          <t>681</t>
+        </is>
+      </c>
+      <c r="B58" s="1" t="inlineStr">
+        <is>
+          <t>SILVER, PLATINUM AND OTHER METALS OF THE PLATINUM GROUP</t>
+        </is>
+      </c>
+      <c r="C58" s="8" t="n">
+        <v>4431.385441</v>
+      </c>
+      <c r="D58" s="9" t="n">
+        <v>9.902188930908871</v>
+      </c>
+      <c r="E58" s="8" t="n">
+        <v>9613.178801</v>
+      </c>
+      <c r="F58" s="9" t="n">
+        <v>19.08485993467806</v>
+      </c>
+      <c r="G58" s="8" t="n">
+        <v>13006.764671</v>
+      </c>
+      <c r="H58" s="9" t="n">
+        <v>20.37507680919273</v>
+      </c>
+      <c r="I58" s="8" t="n">
+        <v>9318.049274999999</v>
+      </c>
+      <c r="J58" s="9" t="n">
+        <v>23.61462893875085</v>
+      </c>
+      <c r="K58" s="9" t="n">
+        <v>36.13360923452345</v>
+      </c>
     </row>
     <row r="59">
-      <c r="A59" s="11" t="n"/>
-      <c r="C59" s="12" t="n"/>
-      <c r="D59" s="13" t="n"/>
-      <c r="E59" s="12" t="n"/>
-      <c r="F59" s="13" t="n"/>
-      <c r="G59" s="12" t="n"/>
-      <c r="H59" s="13" t="n"/>
-      <c r="I59" s="12" t="n"/>
-      <c r="J59" s="13" t="n"/>
-      <c r="K59" s="13" t="n"/>
+      <c r="A59" s="11" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="B59" s="1" t="inlineStr">
+        <is>
+          <t>WORKS OF ART, COLLECTORS' PIECES AND ANTIQUES</t>
+        </is>
+      </c>
+      <c r="C59" s="8" t="n">
+        <v>3151.258325</v>
+      </c>
+      <c r="D59" s="9" t="n">
+        <v>7.041670312751616</v>
+      </c>
+      <c r="E59" s="8" t="n">
+        <v>2393.189322</v>
+      </c>
+      <c r="F59" s="9" t="n">
+        <v>4.751152969586501</v>
+      </c>
+      <c r="G59" s="8" t="n">
+        <v>5010.92292</v>
+      </c>
+      <c r="H59" s="9" t="n">
+        <v>7.849603030612433</v>
+      </c>
+      <c r="I59" s="8" t="n">
+        <v>3405.314943</v>
+      </c>
+      <c r="J59" s="9" t="n">
+        <v>8.630051894475359</v>
+      </c>
+      <c r="K59" s="9" t="n">
+        <v>39.97662130619874</v>
+      </c>
     </row>
     <row r="60">
-      <c r="A60" s="11" t="n"/>
-      <c r="C60" s="12" t="n"/>
-      <c r="D60" s="13" t="n"/>
-      <c r="E60" s="12" t="n"/>
-      <c r="F60" s="13" t="n"/>
-      <c r="G60" s="12" t="n"/>
-      <c r="H60" s="13" t="n"/>
-      <c r="I60" s="12" t="n"/>
-      <c r="J60" s="13" t="n"/>
-      <c r="K60" s="13" t="n"/>
+      <c r="A60" s="11" t="inlineStr">
+        <is>
+          <t>897</t>
+        </is>
+      </c>
+      <c r="B60" s="1" t="inlineStr">
+        <is>
+          <t>JEWELLERY, GOLDSMITHS' AND SILVERSMITHS' WARES, AND OTHER ARTICLES OF PRECIOUS OR SEMI-PRECIOUS MATERIALS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C60" s="8" t="n">
+        <v>2978.664305</v>
+      </c>
+      <c r="D60" s="9" t="n">
+        <v>6.655998920104852</v>
+      </c>
+      <c r="E60" s="8" t="n">
+        <v>3590.718586</v>
+      </c>
+      <c r="F60" s="9" t="n">
+        <v>7.128584903832921</v>
+      </c>
+      <c r="G60" s="8" t="n">
+        <v>3104.990122</v>
+      </c>
+      <c r="H60" s="9" t="n">
+        <v>4.863962240247924</v>
+      </c>
+      <c r="I60" s="8" t="n">
+        <v>2361.050228</v>
+      </c>
+      <c r="J60" s="9" t="n">
+        <v>5.983583408338769</v>
+      </c>
+      <c r="K60" s="9" t="n">
+        <v>31.87639820044905</v>
+      </c>
     </row>
     <row r="61">
-      <c r="A61" s="11" t="n"/>
-      <c r="C61" s="12" t="n"/>
-      <c r="D61" s="13" t="n"/>
-      <c r="E61" s="12" t="n"/>
-      <c r="F61" s="13" t="n"/>
-      <c r="G61" s="12" t="n"/>
-      <c r="H61" s="13" t="n"/>
-      <c r="I61" s="12" t="n"/>
-      <c r="J61" s="13" t="n"/>
-      <c r="K61" s="13" t="n"/>
+      <c r="A61" s="11" t="inlineStr">
+        <is>
+          <t>667</t>
+        </is>
+      </c>
+      <c r="B61" s="1" t="inlineStr">
+        <is>
+          <t>PEARLS, PRECIOUS AND SEMI-PRECIOUS STONES, UNWORKED OR WORKED</t>
+        </is>
+      </c>
+      <c r="C61" s="8" t="n">
+        <v>1080.868433</v>
+      </c>
+      <c r="D61" s="9" t="n">
+        <v>2.415263482611016</v>
+      </c>
+      <c r="E61" s="8" t="n">
+        <v>993.908156</v>
+      </c>
+      <c r="F61" s="9" t="n">
+        <v>1.973186844628435</v>
+      </c>
+      <c r="G61" s="8" t="n">
+        <v>1961.220576</v>
+      </c>
+      <c r="H61" s="9" t="n">
+        <v>3.072249009383896</v>
+      </c>
+      <c r="I61" s="8" t="n">
+        <v>1695.353515</v>
+      </c>
+      <c r="J61" s="9" t="n">
+        <v>4.296515611281952</v>
+      </c>
+      <c r="K61" s="9" t="n">
+        <v>64.47762824634663</v>
+      </c>
     </row>
     <row r="62">
-      <c r="A62" s="11" t="n"/>
-      <c r="C62" s="12" t="n"/>
-      <c r="D62" s="13" t="n"/>
-      <c r="E62" s="12" t="n"/>
-      <c r="F62" s="13" t="n"/>
-      <c r="G62" s="12" t="n"/>
-      <c r="H62" s="13" t="n"/>
-      <c r="I62" s="12" t="n"/>
-      <c r="J62" s="13" t="n"/>
-      <c r="K62" s="13" t="n"/>
+      <c r="A62" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B62" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C62" s="8" t="n">
+        <v>2486.009651</v>
+      </c>
+      <c r="D62" s="9" t="n">
+        <v>5.555133394740245</v>
+      </c>
+      <c r="E62" s="8" t="n">
+        <v>2317.148584</v>
+      </c>
+      <c r="F62" s="9" t="n">
+        <v>4.60019074740162</v>
+      </c>
+      <c r="G62" s="8" t="n">
+        <v>2592.887981</v>
+      </c>
+      <c r="H62" s="9" t="n">
+        <v>4.06175502569817</v>
+      </c>
+      <c r="I62" s="8" t="n">
+        <v>1442.309638</v>
+      </c>
+      <c r="J62" s="9" t="n">
+        <v>3.655229320104026</v>
+      </c>
+      <c r="K62" s="9" t="n">
+        <v>-11.28499386257167</v>
+      </c>
     </row>
     <row r="63">
-      <c r="A63" s="11" t="n"/>
-      <c r="C63" s="12" t="n"/>
-      <c r="D63" s="13" t="n"/>
-      <c r="E63" s="12" t="n"/>
-      <c r="F63" s="13" t="n"/>
-      <c r="G63" s="12" t="n"/>
-      <c r="H63" s="13" t="n"/>
-      <c r="I63" s="12" t="n"/>
-      <c r="J63" s="13" t="n"/>
-      <c r="K63" s="13" t="n"/>
+      <c r="A63" s="11" t="inlineStr">
+        <is>
+          <t>112</t>
+        </is>
+      </c>
+      <c r="B63" s="1" t="inlineStr">
+        <is>
+          <t>ALCOHOLIC BEVERAGES</t>
+        </is>
+      </c>
+      <c r="C63" s="8" t="n">
+        <v>1922.786525</v>
+      </c>
+      <c r="D63" s="9" t="n">
+        <v>4.296578507524083</v>
+      </c>
+      <c r="E63" s="8" t="n">
+        <v>1926.991043</v>
+      </c>
+      <c r="F63" s="9" t="n">
+        <v>3.825618446544297</v>
+      </c>
+      <c r="G63" s="8" t="n">
+        <v>2189.371509</v>
+      </c>
+      <c r="H63" s="9" t="n">
+        <v>3.429647094268797</v>
+      </c>
+      <c r="I63" s="8" t="n">
+        <v>1148.984314</v>
+      </c>
+      <c r="J63" s="9" t="n">
+        <v>2.911858204522662</v>
+      </c>
+      <c r="K63" s="9" t="n">
+        <v>-10.32577721747004</v>
+      </c>
     </row>
     <row r="64">
-      <c r="A64" s="11" t="n"/>
-      <c r="C64" s="12" t="n"/>
-      <c r="D64" s="13" t="n"/>
-      <c r="E64" s="12" t="n"/>
-      <c r="F64" s="13" t="n"/>
-      <c r="G64" s="12" t="n"/>
-      <c r="H64" s="13" t="n"/>
-      <c r="I64" s="12" t="n"/>
-      <c r="J64" s="13" t="n"/>
-      <c r="K64" s="13" t="n"/>
+      <c r="A64" s="11" t="inlineStr">
+        <is>
+          <t>874</t>
+        </is>
+      </c>
+      <c r="B64" s="1" t="inlineStr">
+        <is>
+          <t>MEASURING, CHECKING, ANALYSING AND CONTROLLING INSTRUMENTS AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C64" s="8" t="n">
+        <v>1348.124559</v>
+      </c>
+      <c r="D64" s="9" t="n">
+        <v>3.012462865925682</v>
+      </c>
+      <c r="E64" s="8" t="n">
+        <v>1973.017372</v>
+      </c>
+      <c r="F64" s="9" t="n">
+        <v>3.916993636838379</v>
+      </c>
+      <c r="G64" s="8" t="n">
+        <v>2251.567951</v>
+      </c>
+      <c r="H64" s="9" t="n">
+        <v>3.52707772479554</v>
+      </c>
+      <c r="I64" s="8" t="n">
+        <v>1056.576263</v>
+      </c>
+      <c r="J64" s="9" t="n">
+        <v>2.677669505695658</v>
+      </c>
+      <c r="K64" s="9" t="n">
+        <v>-25.40702634720295</v>
+      </c>
     </row>
     <row r="65">
-      <c r="A65" s="11" t="n"/>
-      <c r="C65" s="12" t="n"/>
-      <c r="D65" s="13" t="n"/>
-      <c r="E65" s="12" t="n"/>
-      <c r="F65" s="13" t="n"/>
-      <c r="G65" s="12" t="n"/>
-      <c r="H65" s="13" t="n"/>
-      <c r="I65" s="12" t="n"/>
-      <c r="J65" s="13" t="n"/>
-      <c r="K65" s="13" t="n"/>
+      <c r="A65" s="11" t="inlineStr">
+        <is>
+          <t>781</t>
+        </is>
+      </c>
+      <c r="B65" s="1" t="inlineStr">
+        <is>
+          <t>MOTOR CARS AND OTHER MOTOR VEHICLES PRINCIPALLY DESIGNED FOR THE TRANSPORT OF PERSONS (OTHER THAN PUBLIC-TRANSPORT TYPE VEHICLES), INCLUDING STATION WAGONS AND RACING CARS</t>
+        </is>
+      </c>
+      <c r="C65" s="8" t="n">
+        <v>1199.572974</v>
+      </c>
+      <c r="D65" s="9" t="n">
+        <v>2.680515694947023</v>
+      </c>
+      <c r="E65" s="8" t="n">
+        <v>1245.759476</v>
+      </c>
+      <c r="F65" s="9" t="n">
+        <v>2.473182451291216</v>
+      </c>
+      <c r="G65" s="8" t="n">
+        <v>1632.355164</v>
+      </c>
+      <c r="H65" s="9" t="n">
+        <v>2.557081848381387</v>
+      </c>
+      <c r="I65" s="8" t="n">
+        <v>898.601702</v>
+      </c>
+      <c r="J65" s="9" t="n">
+        <v>2.277316327720317</v>
+      </c>
+      <c r="K65" s="9" t="n">
+        <v>3.109740628512436</v>
+      </c>
     </row>
     <row r="66">
-      <c r="A66" s="11" t="n"/>
-      <c r="C66" s="12" t="n"/>
-      <c r="D66" s="13" t="n"/>
-      <c r="E66" s="12" t="n"/>
-      <c r="F66" s="13" t="n"/>
-      <c r="G66" s="12" t="n"/>
-      <c r="H66" s="13" t="n"/>
-      <c r="I66" s="12" t="n"/>
-      <c r="J66" s="13" t="n"/>
-      <c r="K66" s="13" t="n"/>
+      <c r="A66" s="11" t="inlineStr">
+        <is>
+          <t>773</t>
+        </is>
+      </c>
+      <c r="B66" s="1" t="inlineStr">
+        <is>
+          <t>EQUIPMENT FOR DISTRIBUTING ELECTRICITY, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C66" s="8" t="n">
+        <v>729.835506</v>
+      </c>
+      <c r="D66" s="9" t="n">
+        <v>1.630859956805431</v>
+      </c>
+      <c r="E66" s="8" t="n">
+        <v>838.725045</v>
+      </c>
+      <c r="F66" s="9" t="n">
+        <v>1.665104783639981</v>
+      </c>
+      <c r="G66" s="8" t="n">
+        <v>896.101645</v>
+      </c>
+      <c r="H66" s="9" t="n">
+        <v>1.403741845689533</v>
+      </c>
+      <c r="I66" s="8" t="n">
+        <v>490.489119</v>
+      </c>
+      <c r="J66" s="9" t="n">
+        <v>1.243041134667085</v>
+      </c>
+      <c r="K66" s="9" t="n">
+        <v>-12.67902869694609</v>
+      </c>
     </row>
     <row r="67">
-      <c r="A67" s="11" t="n"/>
-      <c r="C67" s="12" t="n"/>
-      <c r="D67" s="13" t="n"/>
-      <c r="E67" s="12" t="n"/>
-      <c r="F67" s="13" t="n"/>
-      <c r="G67" s="12" t="n"/>
-      <c r="H67" s="13" t="n"/>
-      <c r="I67" s="12" t="n"/>
-      <c r="J67" s="13" t="n"/>
-      <c r="K67" s="13" t="n"/>
+      <c r="A67" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B67" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C67" s="8" t="n">
+        <v>12962.102124</v>
+      </c>
+      <c r="D67" s="9" t="n">
+        <v>28.96457234029694</v>
+      </c>
+      <c r="E67" s="8" t="n">
+        <v>13682.029912</v>
+      </c>
+      <c r="F67" s="9" t="n">
+        <v>27.16267219178665</v>
+      </c>
+      <c r="G67" s="8" t="n">
+        <v>14209.099095</v>
+      </c>
+      <c r="H67" s="9" t="n">
+        <v>22.258531831175</v>
+      </c>
+      <c r="I67" s="8" t="n">
+        <v>7706.234798</v>
+      </c>
+      <c r="J67" s="9" t="n">
+        <v>19.52982538500899</v>
+      </c>
+      <c r="K67" s="9" t="n">
+        <v>-6.547984305216303</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="11" t="n"/>
